--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations_sd_filtered/AR2_50_9_qoq_forecast_error_table_latest_eval_sd_filtered.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations_sd_filtered/AR2_50_9_qoq_forecast_error_table_latest_eval_sd_filtered.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.005454686584897269</v>
+        <v>0.001974836808913309</v>
       </c>
       <c r="C2">
-        <v>0.7644676225576379</v>
+        <v>0.7564986997685976</v>
       </c>
       <c r="D2">
-        <v>1.356081236129169</v>
+        <v>1.331115891817462</v>
       </c>
       <c r="E2">
-        <v>1.16450901075482</v>
+        <v>1.153739958490414</v>
       </c>
       <c r="F2">
-        <v>1.176563876326314</v>
+        <v>1.165451647513039</v>
       </c>
       <c r="G2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1723938758460782</v>
+        <v>0.1715060524283095</v>
       </c>
       <c r="C3">
-        <v>0.7586025304304075</v>
+        <v>0.7455020267087988</v>
       </c>
       <c r="D3">
-        <v>1.590207478978874</v>
+        <v>1.556349277421864</v>
       </c>
       <c r="E3">
-        <v>1.261034289374747</v>
+        <v>1.247537284982643</v>
       </c>
       <c r="F3">
-        <v>1.262700074855407</v>
+        <v>1.248768565063892</v>
       </c>
       <c r="G3">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.1259411537275101</v>
+        <v>-0.1210599245473831</v>
       </c>
       <c r="C4">
-        <v>0.7056963219373802</v>
+        <v>0.6932517703744887</v>
       </c>
       <c r="D4">
-        <v>1.454172811338649</v>
+        <v>1.42325916890264</v>
       </c>
       <c r="E4">
-        <v>1.205890878702816</v>
+        <v>1.19300426189626</v>
       </c>
       <c r="F4">
-        <v>1.212262051464949</v>
+        <v>1.199405667105797</v>
       </c>
       <c r="G4">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1721622596306275</v>
+        <v>0.1732007841850449</v>
       </c>
       <c r="C5">
-        <v>0.7224522903087541</v>
+        <v>0.7115279881092994</v>
       </c>
       <c r="D5">
-        <v>1.442886645098663</v>
+        <v>1.411811716246263</v>
       </c>
       <c r="E5">
-        <v>1.201202166622531</v>
+        <v>1.188196833965763</v>
       </c>
       <c r="F5">
-        <v>1.202233773833197</v>
+        <v>1.188494915725877</v>
       </c>
       <c r="G5">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.03219774935362896</v>
+        <v>0.03614660433360007</v>
       </c>
       <c r="C6">
-        <v>0.569176841172628</v>
+        <v>0.5611928274455102</v>
       </c>
       <c r="D6">
-        <v>0.7223897616897726</v>
+        <v>0.7065544791159908</v>
       </c>
       <c r="E6">
-        <v>0.8499351514614352</v>
+        <v>0.8405679503264389</v>
       </c>
       <c r="F6">
-        <v>0.8591441784348968</v>
+        <v>0.849279849945092</v>
       </c>
       <c r="G6">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.04420414667333616</v>
+        <v>-0.03741410742334574</v>
       </c>
       <c r="C7">
-        <v>0.6874061203936677</v>
+        <v>0.6726782106122756</v>
       </c>
       <c r="D7">
-        <v>1.346091043460553</v>
+        <v>1.306474751485271</v>
       </c>
       <c r="E7">
-        <v>1.160211637357837</v>
+        <v>1.143011264811188</v>
       </c>
       <c r="F7">
-        <v>1.177345029836137</v>
+        <v>1.159578656834397</v>
       </c>
       <c r="G7">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.05287184835171398</v>
+        <v>-0.04498115623876454</v>
       </c>
       <c r="C8">
-        <v>0.6954546141920624</v>
+        <v>0.6806687468339884</v>
       </c>
       <c r="D8">
-        <v>1.254882323663544</v>
+        <v>1.217036297618114</v>
       </c>
       <c r="E8">
-        <v>1.120215302369836</v>
+        <v>1.103193680918321</v>
       </c>
       <c r="F8">
-        <v>1.136871492753367</v>
+        <v>1.119366851947603</v>
       </c>
       <c r="G8">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.004984750109899827</v>
+        <v>0.008498424339290329</v>
       </c>
       <c r="C9">
-        <v>0.6302426060337214</v>
+        <v>0.6040240707239352</v>
       </c>
       <c r="D9">
-        <v>0.693386555994453</v>
+        <v>0.6504015573506643</v>
       </c>
       <c r="E9">
-        <v>0.8326983583473988</v>
+        <v>0.8064747716765009</v>
       </c>
       <c r="F9">
-        <v>0.8619092438100066</v>
+        <v>0.832877315741465</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.03799394210172221</v>
+        <v>-0.005607768909606597</v>
       </c>
       <c r="C10">
-        <v>0.5292772821974219</v>
+        <v>0.504936332959623</v>
       </c>
       <c r="D10">
-        <v>0.4688629943990994</v>
+        <v>0.4301487342848143</v>
       </c>
       <c r="E10">
-        <v>0.6847357113508097</v>
+        <v>0.6558572514540144</v>
       </c>
       <c r="F10">
-        <v>0.725153009100841</v>
+        <v>0.6913089735443678</v>
       </c>
       <c r="G10">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7">

--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations_sd_filtered/AR2_50_9_qoq_forecast_error_table_latest_eval_sd_filtered.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations_sd_filtered/AR2_50_9_qoq_forecast_error_table_latest_eval_sd_filtered.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.433935198812251</v>
+        <v>0.3446948460339797</v>
       </c>
       <c r="C2">
-        <v>0.4883748341653806</v>
+        <v>0.3446948460339797</v>
       </c>
       <c r="D2">
-        <v>0.2913197292499859</v>
+        <v>0.1445232426843725</v>
       </c>
       <c r="E2">
-        <v>0.5397404276594314</v>
+        <v>0.3801621268411315</v>
       </c>
       <c r="F2">
-        <v>0.3340733006221409</v>
+        <v>0.1731862872813958</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.3043483804216044</v>
+        <v>0.3269786427793283</v>
       </c>
       <c r="C3">
-        <v>0.3187202035556604</v>
+        <v>0.3312344728690593</v>
       </c>
       <c r="D3">
-        <v>0.1391823142959026</v>
+        <v>0.1381123416715895</v>
       </c>
       <c r="E3">
-        <v>0.3730714600393638</v>
+        <v>0.3716346884664959</v>
       </c>
       <c r="F3">
-        <v>0.2253588111853846</v>
+        <v>0.1852485889866795</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2239330230754586</v>
+        <v>0.2602905224375459</v>
       </c>
       <c r="C4">
-        <v>0.2420726978122317</v>
+        <v>0.2850643385747676</v>
       </c>
       <c r="D4">
-        <v>0.08325831886165148</v>
+        <v>0.1040594201288039</v>
       </c>
       <c r="E4">
-        <v>0.2885451764657512</v>
+        <v>0.3225824237753879</v>
       </c>
       <c r="F4">
-        <v>0.190849553422929</v>
+        <v>0.200854463779107</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.3439814776516536</v>
+        <v>0.3235260940633222</v>
       </c>
       <c r="C5">
-        <v>0.3439814776516536</v>
+        <v>0.3235260940633222</v>
       </c>
       <c r="D5">
-        <v>0.1481954533256283</v>
+        <v>0.1350471282558087</v>
       </c>
       <c r="E5">
-        <v>0.3849616257831789</v>
+        <v>0.3674875892541253</v>
       </c>
       <c r="F5">
-        <v>0.1833199959169479</v>
+        <v>0.186326885464196</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3607780907168635</v>
+        <v>0.3105992790096791</v>
       </c>
       <c r="C6">
-        <v>0.3638782949054072</v>
+        <v>0.3148849937619054</v>
       </c>
       <c r="D6">
-        <v>0.166400635697807</v>
+        <v>0.1282073827774651</v>
       </c>
       <c r="E6">
-        <v>0.40792234027791</v>
+        <v>0.358060585344806</v>
       </c>
       <c r="F6">
-        <v>0.2006650192526551</v>
+        <v>0.190444504571002</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3167374129797205</v>
+        <v>0.2715293295939802</v>
       </c>
       <c r="C7">
-        <v>0.3281249448458587</v>
+        <v>0.2808173377963946</v>
       </c>
       <c r="D7">
-        <v>0.1360088531859135</v>
+        <v>0.1058114480826604</v>
       </c>
       <c r="E7">
-        <v>0.3687937813818361</v>
+        <v>0.325286716732578</v>
       </c>
       <c r="F7">
-        <v>0.2003672813995112</v>
+        <v>0.1934695922577707</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3332309007927744</v>
+        <v>0.29537703190916</v>
       </c>
       <c r="C8">
-        <v>0.3363297904028241</v>
+        <v>0.29537703190916</v>
       </c>
       <c r="D8">
-        <v>0.1472445396808239</v>
+        <v>0.119218943402999</v>
       </c>
       <c r="E8">
-        <v>0.3837245622589515</v>
+        <v>0.3452809629895616</v>
       </c>
       <c r="F8">
-        <v>0.2034044709093121</v>
+        <v>0.1958714448515681</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.3172614408683174</v>
+        <v>0.3108436987415587</v>
       </c>
       <c r="C9">
-        <v>0.3172614408683174</v>
+        <v>0.3108436987415587</v>
       </c>
       <c r="D9">
-        <v>0.1160295978885064</v>
+        <v>0.1261775239899553</v>
       </c>
       <c r="E9">
-        <v>0.3406311757436574</v>
+        <v>0.3552147575621758</v>
       </c>
       <c r="F9">
-        <v>0.143177167763884</v>
+        <v>0.1883201070813918</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2695677751263204</v>
+        <v>0.2851881662423609</v>
       </c>
       <c r="C10">
-        <v>0.2695677751263204</v>
+        <v>0.2851881662423609</v>
       </c>
       <c r="D10">
-        <v>0.07820422228561637</v>
+        <v>0.1084188778872009</v>
       </c>
       <c r="E10">
-        <v>0.2796501784115583</v>
+        <v>0.3292702201645344</v>
       </c>
       <c r="F10">
-        <v>0.09113811139470071</v>
+        <v>0.1840060723268408</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,19 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.1878533956106533</v>
+        <v>0.2443419770806189</v>
       </c>
       <c r="C11">
-        <v>0.1878533956106533</v>
+        <v>0.2443419770806189</v>
       </c>
       <c r="D11">
-        <v>0.03528889824245262</v>
+        <v>0.0744009712500677</v>
       </c>
       <c r="E11">
-        <v>0.1878533956106533</v>
+        <v>0.2727654143216616</v>
+      </c>
+      <c r="F11">
+        <v>0.1399903305537064</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations_sd_filtered/AR2_50_9_qoq_forecast_error_table_latest_eval_sd_filtered.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations_sd_filtered/AR2_50_9_qoq_forecast_error_table_latest_eval_sd_filtered.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.3446948460339797</v>
+        <v>0.433935198812251</v>
       </c>
       <c r="C2">
-        <v>0.3446948460339797</v>
+        <v>0.4883748341653806</v>
       </c>
       <c r="D2">
-        <v>0.1445232426843725</v>
+        <v>0.2913197292499859</v>
       </c>
       <c r="E2">
-        <v>0.3801621268411315</v>
+        <v>0.5397404276594314</v>
       </c>
       <c r="F2">
-        <v>0.1731862872813958</v>
+        <v>0.3340733006221409</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.3269786427793283</v>
+        <v>0.3043483804216044</v>
       </c>
       <c r="C3">
-        <v>0.3312344728690593</v>
+        <v>0.3187202035556604</v>
       </c>
       <c r="D3">
-        <v>0.1381123416715895</v>
+        <v>0.1391823142959026</v>
       </c>
       <c r="E3">
-        <v>0.3716346884664959</v>
+        <v>0.3730714600393638</v>
       </c>
       <c r="F3">
-        <v>0.1852485889866795</v>
+        <v>0.2253588111853846</v>
       </c>
       <c r="G3">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2602905224375459</v>
+        <v>0.2239330230754586</v>
       </c>
       <c r="C4">
-        <v>0.2850643385747676</v>
+        <v>0.2420726978122317</v>
       </c>
       <c r="D4">
-        <v>0.1040594201288039</v>
+        <v>0.08325831886165148</v>
       </c>
       <c r="E4">
-        <v>0.3225824237753879</v>
+        <v>0.2885451764657512</v>
       </c>
       <c r="F4">
-        <v>0.200854463779107</v>
+        <v>0.190849553422929</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.3235260940633222</v>
+        <v>0.3439814776516536</v>
       </c>
       <c r="C5">
-        <v>0.3235260940633222</v>
+        <v>0.3439814776516536</v>
       </c>
       <c r="D5">
-        <v>0.1350471282558087</v>
+        <v>0.1481954533256283</v>
       </c>
       <c r="E5">
-        <v>0.3674875892541253</v>
+        <v>0.3849616257831789</v>
       </c>
       <c r="F5">
-        <v>0.186326885464196</v>
+        <v>0.1833199959169479</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3105992790096791</v>
+        <v>0.3607780907168635</v>
       </c>
       <c r="C6">
-        <v>0.3148849937619054</v>
+        <v>0.3638782949054072</v>
       </c>
       <c r="D6">
-        <v>0.1282073827774651</v>
+        <v>0.166400635697807</v>
       </c>
       <c r="E6">
-        <v>0.358060585344806</v>
+        <v>0.40792234027791</v>
       </c>
       <c r="F6">
-        <v>0.190444504571002</v>
+        <v>0.2006650192526551</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.2715293295939802</v>
+        <v>0.3167374129797205</v>
       </c>
       <c r="C7">
-        <v>0.2808173377963946</v>
+        <v>0.3281249448458587</v>
       </c>
       <c r="D7">
-        <v>0.1058114480826604</v>
+        <v>0.1360088531859135</v>
       </c>
       <c r="E7">
-        <v>0.325286716732578</v>
+        <v>0.3687937813818361</v>
       </c>
       <c r="F7">
-        <v>0.1934695922577707</v>
+        <v>0.2003672813995112</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.29537703190916</v>
+        <v>0.3332309007927744</v>
       </c>
       <c r="C8">
-        <v>0.29537703190916</v>
+        <v>0.3363297904028241</v>
       </c>
       <c r="D8">
-        <v>0.119218943402999</v>
+        <v>0.1472445396808239</v>
       </c>
       <c r="E8">
-        <v>0.3452809629895616</v>
+        <v>0.3837245622589515</v>
       </c>
       <c r="F8">
-        <v>0.1958714448515681</v>
+        <v>0.2034044709093121</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,19 +611,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.3108436987415587</v>
+        <v>0.2929253822463562</v>
       </c>
       <c r="C9">
-        <v>0.3108436987415587</v>
+        <v>0.295209788697302</v>
       </c>
       <c r="D9">
-        <v>0.1261775239899553</v>
+        <v>0.1182577732422086</v>
       </c>
       <c r="E9">
-        <v>0.3552147575621758</v>
+        <v>0.3438862795201469</v>
       </c>
       <c r="F9">
-        <v>0.1883201070813918</v>
+        <v>0.1973397892307624</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2851881662423609</v>
+        <v>0.3047033996258702</v>
       </c>
       <c r="C10">
-        <v>0.2851881662423609</v>
+        <v>0.3047033996258702</v>
       </c>
       <c r="D10">
-        <v>0.1084188778872009</v>
+        <v>0.1225151295288574</v>
       </c>
       <c r="E10">
-        <v>0.3292702201645344</v>
+        <v>0.35002161294534</v>
       </c>
       <c r="F10">
-        <v>0.1840060723268408</v>
+        <v>0.1886932996753026</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2443419770806189</v>
+        <v>0.2886753471776797</v>
       </c>
       <c r="C11">
-        <v>0.2443419770806189</v>
+        <v>0.2886753471776797</v>
       </c>
       <c r="D11">
-        <v>0.0744009712500677</v>
+        <v>0.1109408868566417</v>
       </c>
       <c r="E11">
-        <v>0.2727654143216616</v>
+        <v>0.3330778990816439</v>
       </c>
       <c r="F11">
-        <v>0.1399903305537064</v>
+        <v>0.1857667582900928</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations_sd_filtered/AR2_50_9_qoq_forecast_error_table_latest_eval_sd_filtered.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations_sd_filtered/AR2_50_9_qoq_forecast_error_table_latest_eval_sd_filtered.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.433935198812251</v>
+        <v>0.001974836808913309</v>
       </c>
       <c r="C2">
-        <v>0.4883748341653806</v>
+        <v>0.7564986997685976</v>
       </c>
       <c r="D2">
-        <v>0.2913197292499859</v>
+        <v>1.331115891817462</v>
       </c>
       <c r="E2">
-        <v>0.5397404276594314</v>
+        <v>1.153739958490414</v>
       </c>
       <c r="F2">
-        <v>0.3340733006221409</v>
+        <v>1.165451647513039</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.3043483804216044</v>
+        <v>0.1715060524283095</v>
       </c>
       <c r="C3">
-        <v>0.3187202035556604</v>
+        <v>0.7455020267087988</v>
       </c>
       <c r="D3">
-        <v>0.1391823142959026</v>
+        <v>1.556349277421864</v>
       </c>
       <c r="E3">
-        <v>0.3730714600393638</v>
+        <v>1.247537284982643</v>
       </c>
       <c r="F3">
-        <v>0.2253588111853846</v>
+        <v>1.248768565063892</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2239330230754586</v>
+        <v>-0.1210599245473831</v>
       </c>
       <c r="C4">
-        <v>0.2420726978122317</v>
+        <v>0.6932517703744887</v>
       </c>
       <c r="D4">
-        <v>0.08325831886165148</v>
+        <v>1.42325916890264</v>
       </c>
       <c r="E4">
-        <v>0.2885451764657512</v>
+        <v>1.19300426189626</v>
       </c>
       <c r="F4">
-        <v>0.190849553422929</v>
+        <v>1.199405667105797</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.3439814776516536</v>
+        <v>0.1732007841850449</v>
       </c>
       <c r="C5">
-        <v>0.3439814776516536</v>
+        <v>0.7115279881092994</v>
       </c>
       <c r="D5">
-        <v>0.1481954533256283</v>
+        <v>1.411811716246263</v>
       </c>
       <c r="E5">
-        <v>0.3849616257831789</v>
+        <v>1.188196833965763</v>
       </c>
       <c r="F5">
-        <v>0.1833199959169479</v>
+        <v>1.188494915725877</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3607780907168635</v>
+        <v>0.03614660433360007</v>
       </c>
       <c r="C6">
-        <v>0.3638782949054072</v>
+        <v>0.5611928274455102</v>
       </c>
       <c r="D6">
-        <v>0.166400635697807</v>
+        <v>0.7065544791159908</v>
       </c>
       <c r="E6">
-        <v>0.40792234027791</v>
+        <v>0.8405679503264389</v>
       </c>
       <c r="F6">
-        <v>0.2006650192526551</v>
+        <v>0.849279849945092</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3167374129797205</v>
+        <v>-0.03741410742334574</v>
       </c>
       <c r="C7">
-        <v>0.3281249448458587</v>
+        <v>0.6726782106122756</v>
       </c>
       <c r="D7">
-        <v>0.1360088531859135</v>
+        <v>1.306474751485271</v>
       </c>
       <c r="E7">
-        <v>0.3687937813818361</v>
+        <v>1.143011264811188</v>
       </c>
       <c r="F7">
-        <v>0.2003672813995112</v>
+        <v>1.159578656834397</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3332309007927744</v>
+        <v>-0.04498115623876454</v>
       </c>
       <c r="C8">
-        <v>0.3363297904028241</v>
+        <v>0.6806687468339884</v>
       </c>
       <c r="D8">
-        <v>0.1472445396808239</v>
+        <v>1.217036297618114</v>
       </c>
       <c r="E8">
-        <v>0.3837245622589515</v>
+        <v>1.103193680918321</v>
       </c>
       <c r="F8">
-        <v>0.2034044709093121</v>
+        <v>1.119366851947603</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2929253822463562</v>
+        <v>0.008498424339290329</v>
       </c>
       <c r="C9">
-        <v>0.295209788697302</v>
+        <v>0.6040240707239352</v>
       </c>
       <c r="D9">
-        <v>0.1182577732422086</v>
+        <v>0.6504015573506643</v>
       </c>
       <c r="E9">
-        <v>0.3438862795201469</v>
+        <v>0.8064747716765009</v>
       </c>
       <c r="F9">
-        <v>0.1973397892307624</v>
+        <v>0.832877315741465</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.3047033996258702</v>
+        <v>-0.005607768909606597</v>
       </c>
       <c r="C10">
-        <v>0.3047033996258702</v>
+        <v>0.504936332959623</v>
       </c>
       <c r="D10">
-        <v>0.1225151295288574</v>
+        <v>0.4301487342848143</v>
       </c>
       <c r="E10">
-        <v>0.35002161294534</v>
+        <v>0.6558572514540144</v>
       </c>
       <c r="F10">
-        <v>0.1886932996753026</v>
+        <v>0.6913089735443678</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2886753471776797</v>
+        <v>-0.174551384566527</v>
       </c>
       <c r="C11">
-        <v>0.2886753471776797</v>
+        <v>0.5019007433328729</v>
       </c>
       <c r="D11">
-        <v>0.1109408868566417</v>
+        <v>0.3135597735887778</v>
       </c>
       <c r="E11">
-        <v>0.3330778990816439</v>
+        <v>0.5599640824095575</v>
       </c>
       <c r="F11">
-        <v>0.1857667582900928</v>
+        <v>0.5948650978737597</v>
       </c>
       <c r="G11">
         <v>5</v>
